--- a/conso.xlsx
+++ b/conso.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>corel</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>decal</t>
+  </si>
+  <si>
+    <t>Version 3.3V</t>
+  </si>
+  <si>
+    <t>Version 5V</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -135,8 +144,518 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8954-4D0A-8145-3D676AC13409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-8954-4D0A-8145-3D676AC13409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-8954-4D0A-8145-3D676AC13409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-8954-4D0A-8145-3D676AC13409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8954-4D0A-8145-3D676AC13409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8954-4D0A-8145-3D676AC13409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="6"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -236,13 +755,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-078C-4A97-842F-7666C9766E72}"/>
+              <c16:uniqueId val="{0000000B-8954-4D0A-8145-3D676AC13409}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="7"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -342,7 +861,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-078C-4A97-842F-7666C9766E72}"/>
+              <c16:uniqueId val="{0000000D-8954-4D0A-8145-3D676AC13409}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -481,6 +1000,427 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$24:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$24:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D12A-4E6A-9F71-3CBB3C5BC5C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$24:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$24:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-442.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D12A-4E6A-9F71-3CBB3C5BC5C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1091586287"/>
+        <c:axId val="1091590031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1091586287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091590031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1091590031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091586287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -489,6 +1429,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1086,16 +2058,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131109</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1109,6 +2081,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369792</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>470645</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1380,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E14"/>
+  <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,6 +2393,11 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
@@ -1550,6 +2557,149 @@
       </c>
       <c r="B14">
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2300</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(A24*$B$34+$B$35)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>108</v>
+      </c>
+      <c r="B25">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:C32" si="2">(A25*$B$34+$B$35)</f>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>1250</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>162</v>
+      </c>
+      <c r="B28">
+        <v>750</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>182</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>222</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>255</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>-442.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>CORREL(A24:A32,B24:B32)</f>
+        <v>-0.9863179791050859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
